--- a/medicine/Pharmacie/Acénocoumarol/Acénocoumarol.xlsx
+++ b/medicine/Pharmacie/Acénocoumarol/Acénocoumarol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9nocoumarol</t>
+          <t>Acénocoumarol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acénocoumarol (Sintrom) est un anticoagulant oral dérivé de la coumarine. Son mode d'action consiste à inhiber la synthèse de la vitamine K.
 Ce médicament est utilisé en traitement des maladies thrombo-emboliques ou en prévention des états d'hypercoagulabilité.
 L'effet anticoagulant est assez aléatoire; pour diminuer le risque hémorragique il est nécessaire de suivre le patient régulièrement par la mesure de l'INR.
-L'acénocoumarol a été associé à un risque d'instabilité de l'anticoagulation deux fois plus important par rapport à la warfarine, le médicament inhibiteur de la synthèse de la vitamine K de référence[3].
+L'acénocoumarol a été associé à un risque d'instabilité de l'anticoagulation deux fois plus important par rapport à la warfarine, le médicament inhibiteur de la synthèse de la vitamine K de référence.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9nocoumarol</t>
+          <t>Acénocoumarol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils consistent en hémorragies diverses pouvant atteindre à peu près tous les organes.
 Il est tératogène et donc contre-indiqué durant la grossesse.</t>
